--- a/biology/Botanique/Perovskia_atriplicifolia/Perovskia_atriplicifolia.xlsx
+++ b/biology/Botanique/Perovskia_atriplicifolia/Perovskia_atriplicifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Perovskia atriplicifolia est une espèce de plantes de la famille des Lamiaceae. Elle est parfois appelée "Pérovskie à feuilles d'Arroche", "Sauge d'Afghanistan", "Lavande d'Afghanistan" ou "Sauge de Russie", comme d'autres espèces du genre Perovskia.
 </t>
@@ -511,7 +523,9 @@
           <t>Chorologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire des zones rocailleuses d'Asie tempérée: Afghanistan, Iran, Chine, Pakistan et notamment de l'Himalaya.
 </t>
@@ -542,7 +556,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Doté d'une excellente rusticité, cette espèce se cultive en plein soleil dans un sol peu fertile et bien drainé. Les panicules terminales, de 25 à 30 centimètres, très légères, s'épanouissent de juillet à août. Elles sont composées d'une multitudes de fleurs bleues tubulaires à deux lèvres. La tige florale sèche reste décorative jusqu'en octobre.
 Il est possible de rabattre les tiges en fin d'hiver.
